--- a/GenerateJson/readData/pdp数据备份.xlsx
+++ b/GenerateJson/readData/pdp数据备份.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/eckv/small/zhenwo08.jpg?w=750&amp;h=800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageSwiper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,9 +465,10 @@
     <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="76.5" customWidth="1"/>
     <col min="6" max="6" width="75.125" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -482,8 +487,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -499,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -511,7 +519,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -523,7 +531,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -537,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -547,7 +555,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>

--- a/GenerateJson/readData/pdp数据备份.xlsx
+++ b/GenerateJson/readData/pdp数据备份.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>imageSwiper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoHeight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,10 +473,12 @@
     <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="76.5" customWidth="1"/>
     <col min="6" max="6" width="75.125" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -488,10 +498,16 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -506,8 +522,14 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1">
+        <v>750</v>
+      </c>
+      <c r="H2" s="1">
+        <v>750</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -518,8 +540,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -530,8 +554,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -545,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -555,7 +581,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
